--- a/project/uploads/93/split_output/9标准件选用.xlsx
+++ b/project/uploads/93/split_output/9标准件选用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12638BD9-7D12-4179-B896-5A01132E0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31FC9C91-40E5-4755-931D-51EE72E7333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{DA15C2AA-2E9D-4BB9-941A-DC406831B9DF}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{259970F4-D124-4D5E-A39F-6C4D6D946FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="9标准件选用" sheetId="1" r:id="rId1"/>
@@ -1886,7 +1886,7 @@
         <xdr:cNvPr id="2" name="CheckBox32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D4B73-A594-41F6-A603-7FE5C8ED8E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0251B338-F60E-4DBA-9EF7-744E6FF10340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1909,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1483360" y="598170"/>
+          <a:off x="1482090" y="613410"/>
           <a:ext cx="152400" cy="182655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1938,15 +1938,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>182880</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>335280</xdr:colOff>
+          <xdr:colOff>336550</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1956,7 +1956,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC361D00-36B3-4A4D-8D11-DE1006AF9B4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467303F8-CA53-4100-8D7E-89776127BA6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2001,15 +2001,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>182880</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>335280</xdr:colOff>
+          <xdr:colOff>336550</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2019,7 +2019,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6EDB35C-9D6C-4B0D-8992-0B16EE6D08FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39904E9-A4A5-4236-BE40-BFDEB09E2BD5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2064,15 +2064,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>182880</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>335280</xdr:colOff>
+          <xdr:colOff>336550</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2082,7 +2082,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932E0864-EC99-4AA0-B686-E088E419EC8F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43E5732-77C6-4B21-A0AD-38FF0841EA6E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2140,7 +2140,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F99F58-B583-4466-96C7-BBD92E1CC73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D9C6E7-4ADB-4756-B070-0E4138EB02FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,8 +2148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1741805" y="1363980"/>
-          <a:ext cx="9118600" cy="1408430"/>
+          <a:off x="1740535" y="1394460"/>
+          <a:ext cx="9126220" cy="1443990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2222,7 +2222,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8E4788-EDC6-492F-A322-E2647473D7B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C6E81-66D2-4D3F-A5B9-C1090E7DD50A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,8 +2238,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4506595" y="3129280"/>
-          <a:ext cx="2966720" cy="395605"/>
+          <a:off x="4505325" y="3205480"/>
+          <a:ext cx="2970530" cy="405765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7850,7 +7850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4C5E5C-F01E-4449-8D66-ACEAC4D81201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14FF92-4E3D-473E-B18E-692D52BB3E5D}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7860,17 +7860,17 @@
       <selection activeCell="A18" sqref="A18:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" customWidth="1"/>
-    <col min="6" max="6" width="42.59765625" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="42.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -7891,7 +7891,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>4</v>
@@ -7901,7 +7901,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -7911,11 +7911,11 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -7923,7 +7923,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -7931,7 +7931,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -7939,7 +7939,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -7947,7 +7947,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -7955,7 +7955,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -7963,7 +7963,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -7971,7 +7971,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -7979,7 +7979,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -7987,7 +7987,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -7995,7 +7995,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -8003,7 +8003,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -8011,7 +8011,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -8019,7 +8019,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" s="16" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -8027,7 +8027,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -8035,7 +8035,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -8043,7 +8043,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -8051,7 +8051,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -8059,7 +8059,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="24"/>
@@ -8067,7 +8067,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="24"/>
@@ -8075,7 +8075,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="20"/>
       <c r="C26" s="24"/>
@@ -8083,7 +8083,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="25"/>
       <c r="C27" s="24"/>
@@ -8153,7 +8153,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{E69470DB-5919-490A-A43E-3C1C19E2B4F6}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{28197121-3854-4586-9F6F-58520C4AB43F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
@@ -8168,15 +8168,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>182880</xdr:colOff>
+                <xdr:colOff>184150</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>335280</xdr:colOff>
+                <xdr:colOff>336550</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8193,15 +8193,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>182880</xdr:colOff>
+                <xdr:colOff>184150</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>335280</xdr:colOff>
+                <xdr:colOff>336550</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8218,15 +8218,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>182880</xdr:colOff>
+                <xdr:colOff>184150</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>335280</xdr:colOff>
+                <xdr:colOff>336550</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
